--- a/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/03_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1635,7 +1635,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>18.24</v>
+        <v>45.12</v>
       </c>
       <c r="F2" t="n">
         <v>4.4</v>
@@ -1663,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>591</v>
+        <v>228</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>23.28</v>
+        <v>33.24</v>
       </c>
       <c r="F3" t="n">
         <v>6.5648</v>
@@ -1697,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8</v>
+        <v>24.4</v>
       </c>
       <c r="F4" t="n">
         <v>6.6592</v>
@@ -1731,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>12.0744</v>
+        <v>29.5152</v>
       </c>
       <c r="F5" t="n">
         <v>6.79584</v>
@@ -1771,7 +1771,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>46.56</v>
+        <v>66.48</v>
       </c>
       <c r="F6" t="n">
         <v>3.84</v>
@@ -1805,7 +1805,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>37.2</v>
+        <v>74.60000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>3.76</v>
@@ -1839,7 +1839,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>7.76</v>
+        <v>11.08</v>
       </c>
       <c r="F8" t="n">
         <v>6.3248</v>
@@ -1873,7 +1873,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>6.192</v>
+        <v>11.136</v>
       </c>
       <c r="F9" t="n">
         <v>6.2592</v>
@@ -1901,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>424</v>
+        <v>177</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>170.72</v>
+        <v>243.76</v>
       </c>
       <c r="F10" t="n">
         <v>1.76</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>182.4</v>
+        <v>312</v>
       </c>
       <c r="F11" t="n">
         <v>0.9600000000000001</v>
@@ -1969,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>121.6</v>
+        <v>208</v>
       </c>
       <c r="F12" t="n">
         <v>0.64</v>
@@ -2003,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>397</v>
+        <v>636</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>163.68</v>
+        <v>328.24</v>
       </c>
       <c r="F13" t="n">
         <v>1.76</v>
@@ -2043,7 +2043,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>387.6</v>
+        <v>610.8</v>
       </c>
       <c r="F14" t="n">
         <v>2.4</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>424</v>
+        <v>177</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -2105,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>424</v>
+        <v>177</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4656000000000001</v>
+        <v>0.6648000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>2.4048</v>
@@ -2139,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>265</v>
+        <v>393</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2064</v>
+        <v>0.3712</v>
       </c>
       <c r="F17" t="n">
         <v>2.4032</v>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>397</v>
+        <v>636</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -2208,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,13 +2311,13 @@
         <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2364,16 +2364,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2420,16 +2420,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D4" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2588,16 +2588,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2636,6 +2636,286 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>211</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" t="n">
+        <v>87</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>110</v>
+      </c>
+      <c r="C9" t="n">
+        <v>178</v>
+      </c>
+      <c r="D9" t="n">
+        <v>69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" t="n">
+        <v>162</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>163</v>
+      </c>
+      <c r="D11" t="n">
+        <v>44</v>
+      </c>
+      <c r="E11" t="n">
+        <v>118</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>79</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2650,7 +2930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2753,13 +3033,13 @@
         <v>9.125</v>
       </c>
       <c r="C2" t="n">
-        <v>36.75</v>
+        <v>28.5</v>
       </c>
       <c r="D2" t="n">
-        <v>14.625</v>
+        <v>1.75</v>
       </c>
       <c r="E2" t="n">
-        <v>7.625</v>
+        <v>5.125</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2806,16 +3086,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3125</v>
+        <v>16.875</v>
       </c>
       <c r="C3" t="n">
-        <v>55.6875</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9375</v>
+        <v>25.6875</v>
       </c>
       <c r="E3" t="n">
-        <v>5.625</v>
+        <v>2.4375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2862,16 +3142,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.25</v>
+        <v>37.40625</v>
       </c>
       <c r="C4" t="n">
-        <v>3.9375</v>
+        <v>38.71875</v>
       </c>
       <c r="D4" t="n">
-        <v>37.625</v>
+        <v>35.875</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>2.40625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2918,16 +3198,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.8125</v>
+        <v>16.875</v>
       </c>
       <c r="C5" t="n">
-        <v>95.15625</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>18.046875</v>
+        <v>20.625</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>30.46875</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2974,16 +3254,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.96875</v>
+        <v>5.5703125</v>
       </c>
       <c r="C6" t="n">
-        <v>31.484375</v>
+        <v>99.78125</v>
       </c>
       <c r="D6" t="n">
-        <v>7.5078125</v>
+        <v>11.140625</v>
       </c>
       <c r="E6" t="n">
-        <v>22.28125</v>
+        <v>11.625</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3030,16 +3310,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.0234375</v>
+        <v>20.42578125</v>
       </c>
       <c r="C7" t="n">
-        <v>4.18359375</v>
+        <v>12.3046875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4921875</v>
+        <v>10.08984375</v>
       </c>
       <c r="E7" t="n">
-        <v>17.47265625</v>
+        <v>16.48828125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3078,6 +3358,286 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.619140625</v>
+      </c>
+      <c r="C8" t="n">
+        <v>52.337890625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.642578125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.580078125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27.392578125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44.326171875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.1826171875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.9609375</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40.4208984375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.4794921875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.20849609375</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.48779296875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40.710205078125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.9892578125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47119140625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.7467041015625</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.7403564453125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.7462158203125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.7432861328125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3110,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1566</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="3">
@@ -3118,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6574</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="4">
@@ -3126,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2812</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="5">
@@ -3134,7 +3694,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28402</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="6">
@@ -3142,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>96292</v>
+        <v>19500</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3770,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3232,7 +3792,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3254,7 +3814,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3285,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3307,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3323,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3345,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3376,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3398,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3420,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>53.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3442,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3461,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -3480,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3502,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -3524,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3546,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
